--- a/M2/Waveforms.xlsx
+++ b/M2/Waveforms.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>PORTB</t>
   </si>
@@ -95,17 +95,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="6">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -135,15 +145,6 @@
     </dxf>
     <dxf>
       <border>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -153,81 +154,9 @@
     </dxf>
     <dxf>
       <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
         <right style="thin">
           <color auto="1"/>
         </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
         <vertical/>
         <horizontal/>
       </border>
@@ -508,27 +437,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" customWidth="1"/>
+    <col min="3" max="4" width="4.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="6" max="10" width="4.5703125" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="15" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -541,13 +474,21 @@
       <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="E3" s="2"/>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -566,7 +507,7 @@
       <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="5">
         <v>0</v>
       </c>
       <c r="H4" s="3">
@@ -578,11 +519,26 @@
       <c r="J4" s="3">
         <v>0</v>
       </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -592,9 +548,10 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -613,23 +570,38 @@
       <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
+      <c r="G6" s="5">
+        <v>1</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
       </c>
       <c r="I6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -639,9 +611,10 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -660,11 +633,11 @@
       <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="5">
         <v>1</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -672,11 +645,26 @@
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -686,9 +674,10 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -707,7 +696,7 @@
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="5">
         <v>0</v>
       </c>
       <c r="H10" s="3">
@@ -719,25 +708,49 @@
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B6:K6 B4:K4 B8:K8 B10:K10">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="B4:E4 B6:E6 B8:E8 B10:E10 G4:P4 G6:P6 G8:P8 G10:P10">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>AND(_xlfn.XOR(B4,C4),COUNTA(C4))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>NOT(B4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>B4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:K4 B6:K6 B8:K8 B10:K10">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(_xlfn.XOR(B4,C4),COUNTA(C4))</formula>
+  <conditionalFormatting sqref="F4 F6 F8 F10">
+    <cfRule type="expression" dxfId="2" priority="10">
+      <formula>AND(_xlfn.XOR(F4,#REF!),COUNTA(#REF!))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>NOT(B4)</formula>
+    <cfRule type="expression" dxfId="1" priority="11">
+      <formula>NOT(F4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="12">
+      <formula>F4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" scale="92" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>